--- a/data/trans_dic/P56$amigo-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P56$amigo-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,8</t>
+          <t>0,0; 8,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +750,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,02</t>
+          <t>0,0; 10,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,32</t>
+          <t>0,0; 13,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,75</t>
+          <t>0,0; 3,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +770,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,05</t>
+          <t>0,0; 9,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,48</t>
+          <t>0,0; 8,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,51</t>
+          <t>0,0; 3,64</t>
         </is>
       </c>
     </row>
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,74; 48,22</t>
+          <t>6,67; 47,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,96</t>
+          <t>0,0; 8,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,17 +895,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,6</t>
+          <t>0,0; 16,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,51</t>
+          <t>1,44; 8,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 20,04</t>
+          <t>2,31; 19,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,35</t>
+          <t>0,0; 10,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,51</t>
+          <t>1,25; 6,66</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,01</t>
+          <t>0,0; 27,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1030,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 20,69</t>
+          <t>2,32; 20,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 13,27</t>
+          <t>1,45; 13,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1050,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 14,6</t>
+          <t>1,75; 16,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 15,08</t>
+          <t>2,81; 13,41</t>
         </is>
       </c>
     </row>
@@ -1159,47 +1160,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,07</t>
+          <t>0,0; 15,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,73</t>
+          <t>0,0; 23,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,38</t>
+          <t>0,0; 8,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,0</t>
+          <t>0,0; 14,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 10,06</t>
+          <t>2,2; 9,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,05</t>
+          <t>0,0; 15,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,65</t>
+          <t>0,0; 7,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,65</t>
+          <t>0,0; 7,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 9,24</t>
+          <t>2,6; 8,63</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 15,99</t>
+          <t>2,09; 16,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1299,47 +1300,47 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,5</t>
+          <t>1,45; 8,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,23</t>
+          <t>0,0; 7,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,8</t>
+          <t>1,05; 5,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,91</t>
+          <t>0,57; 5,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,2</t>
+          <t>2,29; 6,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,98</t>
+          <t>1,36; 7,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,18</t>
+          <t>0,75; 4,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,74</t>
+          <t>0,41; 3,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,72</t>
+          <t>2,48; 5,65</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda sus amistades cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1650</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1808</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1569</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2203</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4774</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5426</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2041</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1873</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5520</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4734</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3165</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3076</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2616</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3076</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>998; 7102</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1612</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2027</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2084</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2094</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6689</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>963; 5504</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>980; 8118</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2111</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6293</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1146; 6085</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1738</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3195</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2408</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3195</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4146</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1443</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2192</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1852</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5674</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1859</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>980; 8446</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2304</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>614; 5557</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1802</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>986; 9401</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2187</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1760; 8382</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1422</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1077</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4084</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1077</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5506</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1479</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2152</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1690</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4960</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7465</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4398</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7934</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1762; 7891</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6934</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5477</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5194</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2923; 9687</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3076</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4016</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5435</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3383</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9509</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5118</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5435</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3383</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13524</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1008; 8102</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2178</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1748</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1478; 8413</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7043</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2156; 12176</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>974; 9572</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5751; 15073</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1926; 10378</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2136; 11953</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>996; 9353</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8772; 19937</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>